--- a/results/xlsx/t6.xlsx
+++ b/results/xlsx/t6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\BJS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Desktop\BJS\results\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BC4549D-DC12-4BA3-8AE0-B05955927ECB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9AAABF2-5FB4-4B50-BE81-5E06EE476EAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="t6_08012019133206" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>J7 Map&lt;Month Map&lt;Day Map&lt;Hour List&gt;&gt;&gt;</t>
   </si>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -599,7 +599,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -631,7 +631,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -979,7 +979,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1052,7 +1052,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1094,7 +1094,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1141,7 +1141,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1000" b="1"/>
       </a:pPr>
       <a:endParaRPr lang="pt-PT"/>
     </a:p>
@@ -2031,10 +2031,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
